--- a/resources/sample_tasks.xlsx
+++ b/resources/sample_tasks.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,6 +639,46 @@
         <v>45993</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>T995</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EXPORT_PARQUET: sample_data</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>T994</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>S3_UPLOAD: sample_data.parquet</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>46000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resources/sample_tasks.xlsx
+++ b/resources/sample_tasks.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,6 +679,28 @@
         <v>46000</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Test API task</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
